--- a/set_up_grasp_models/tests/test_files/test_set_up_models/convert_mechanism/model_v2_manual.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_set_up_models/convert_mechanism/model_v2_manual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="317">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -54,6 +54,15 @@
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -714,28 +723,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_std</t>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction ID</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -1092,13 +1098,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1115,32 +1129,29 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1171,33 +1182,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
@@ -1205,43 +1216,59 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1257,38 +1284,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B6 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1302,7 +1326,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1316,7 +1340,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1330,7 +1354,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1344,7 +1368,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1358,7 +1382,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1372,7 +1396,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1386,7 +1410,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1400,7 +1424,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1414,7 +1438,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1428,7 +1452,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1442,7 +1466,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1456,7 +1480,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1470,7 +1494,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1484,7 +1508,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1498,7 +1522,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1512,7 +1536,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1526,7 +1550,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1540,7 +1564,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1554,7 +1578,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1568,7 +1592,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1582,7 +1606,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1596,7 +1620,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1610,7 +1634,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1624,7 +1648,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1638,7 +1662,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1652,7 +1676,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1666,7 +1690,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1680,7 +1704,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1694,7 +1718,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1708,7 +1732,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1722,7 +1746,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -1736,7 +1760,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -1750,7 +1774,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -1764,7 +1788,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -1778,7 +1802,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -1792,7 +1816,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -1806,7 +1830,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -1820,7 +1844,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -1834,7 +1858,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -1848,7 +1872,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -1862,7 +1886,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1876,7 +1900,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1890,7 +1914,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1904,7 +1928,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1918,7 +1942,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1932,7 +1956,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1946,7 +1970,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1960,7 +1984,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1984,38 +2008,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="A5:B6 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -2029,7 +2050,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -2043,7 +2064,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -2057,7 +2078,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2071,7 +2092,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -2085,7 +2106,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2099,7 +2120,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2113,7 +2134,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2127,7 +2148,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2141,7 +2162,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2155,7 +2176,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2169,7 +2190,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2183,7 +2204,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2197,7 +2218,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2211,7 +2232,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2225,7 +2246,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2239,7 +2260,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2253,7 +2274,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2267,7 +2288,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2281,7 +2302,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2295,7 +2316,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2309,7 +2330,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2323,7 +2344,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2337,7 +2358,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2351,7 +2372,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2365,7 +2386,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2379,7 +2400,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2393,7 +2414,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2407,7 +2428,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2421,7 +2442,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2435,7 +2456,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2449,7 +2470,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2463,7 +2484,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2477,7 +2498,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2491,7 +2512,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2505,7 +2526,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2519,7 +2540,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2533,7 +2554,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2547,7 +2568,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2561,7 +2582,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2575,7 +2596,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2589,7 +2610,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2603,7 +2624,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2617,7 +2638,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2631,7 +2652,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2645,7 +2666,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2659,7 +2680,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2673,7 +2694,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2687,7 +2708,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2701,7 +2722,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2715,7 +2736,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2739,57 +2760,56 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="1" sqref="A5:B6 A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2807,16 +2827,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -2824,16 +2844,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>1</v>
@@ -2841,16 +2861,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>2</v>
@@ -2858,16 +2878,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -2875,19 +2895,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>2</v>
@@ -2898,16 +2918,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>1</v>
@@ -2915,16 +2935,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>1</v>
@@ -2932,19 +2952,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>2</v>
@@ -2952,19 +2972,19 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>2</v>
@@ -2972,16 +2992,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>1</v>
@@ -2989,16 +3009,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>1</v>
@@ -3006,22 +3026,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>2</v>
@@ -3032,28 +3052,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>2</v>
@@ -3064,28 +3084,28 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>273</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>2</v>
@@ -3096,16 +3116,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>1</v>
@@ -3113,22 +3133,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>2</v>
@@ -3136,22 +3156,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>282</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>2</v>
@@ -3159,34 +3179,34 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2</v>
@@ -3194,52 +3214,52 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>2</v>
@@ -3247,19 +3267,19 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>2</v>
@@ -3267,16 +3287,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>3</v>
@@ -3284,52 +3304,52 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W27" s="4"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>4</v>
@@ -3337,16 +3357,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>2</v>
@@ -3354,19 +3374,19 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>4</v>
@@ -3377,16 +3397,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>1</v>
@@ -3394,16 +3414,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>1</v>
@@ -3411,16 +3431,16 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>2</v>
@@ -3428,19 +3448,19 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>4</v>
@@ -3451,16 +3471,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
@@ -3468,16 +3488,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>1</v>
@@ -3485,16 +3505,16 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -3502,16 +3522,16 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>1</v>
@@ -3519,16 +3539,16 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>1</v>
@@ -3536,16 +3556,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>1</v>
@@ -3553,16 +3573,16 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>1</v>
@@ -3570,16 +3590,16 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>1</v>
@@ -3587,16 +3607,16 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>1</v>
@@ -3604,16 +3624,16 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>1</v>
@@ -3621,16 +3641,16 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>1</v>
@@ -3638,16 +3658,16 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>1</v>
@@ -3655,16 +3675,16 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>1</v>
@@ -3672,16 +3692,16 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>1</v>
@@ -3689,16 +3709,16 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>1</v>
@@ -3706,16 +3726,16 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>1</v>
@@ -3733,182 +3753,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -4066,7 +4083,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4224,7 +4241,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4382,7 +4399,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4540,7 +4557,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4698,7 +4715,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4856,7 +4873,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5014,7 +5031,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5172,7 +5189,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5330,7 +5347,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5488,7 +5505,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5646,7 +5663,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5804,7 +5821,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5962,7 +5979,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6120,7 +6137,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6278,7 +6295,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6436,7 +6453,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6594,7 +6611,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6752,7 +6769,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6910,7 +6927,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7068,7 +7085,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7226,7 +7243,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7384,7 +7401,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7542,7 +7559,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7700,7 +7717,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7858,7 +7875,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8016,7 +8033,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8174,7 +8191,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8332,7 +8349,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8490,7 +8507,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8648,7 +8665,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8806,7 +8823,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8964,7 +8981,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9122,7 +9139,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9280,7 +9297,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9438,7 +9455,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9596,7 +9613,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9754,7 +9771,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9912,7 +9929,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10070,7 +10087,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10228,7 +10245,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10386,7 +10403,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10544,7 +10561,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10702,7 +10719,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10860,7 +10877,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11018,7 +11035,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11176,7 +11193,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11334,7 +11351,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11492,7 +11509,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0</v>
@@ -11660,593 +11677,593 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B6 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="2" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="16.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="23.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="3" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>120</v>
+      <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="2" t="n">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="n">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="2" t="n">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="2" t="n">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="2" t="n">
+      <c r="A30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="2" t="n">
+      <c r="A31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="2" t="n">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="2" t="n">
+      <c r="A33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="2" t="n">
+      <c r="A34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="2" t="n">
+      <c r="A35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="2" t="n">
+      <c r="A36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="2" t="n">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="2" t="n">
+      <c r="A38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="2" t="n">
+      <c r="A39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="2" t="n">
+      <c r="A40" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="2" t="n">
+      <c r="A41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="2" t="n">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="2" t="n">
+      <c r="A43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="2" t="n">
+      <c r="A44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="2" t="n">
+      <c r="A45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="2" t="n">
+      <c r="A46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="2" t="n">
+      <c r="A47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="2" t="n">
+      <c r="A48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="2" t="n">
+      <c r="A49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="2" t="n">
+      <c r="A50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="2" t="n">
+      <c r="A51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="2" t="n">
+      <c r="A52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12262,583 +12279,583 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B6 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="2" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="3" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="2" t="n">
+      <c r="B48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="2" t="n">
+      <c r="A49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="2" t="n">
+      <c r="A50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12854,279 +12871,276 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -13141,279 +13155,276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -13428,37 +13439,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B6 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -13469,7 +13479,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-27</v>
@@ -13480,7 +13490,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-17.98</v>
@@ -13491,7 +13501,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-5</v>
@@ -13502,7 +13512,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-13.41</v>
@@ -13513,7 +13523,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-5</v>
@@ -13524,7 +13534,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-15.37</v>
@@ -13535,7 +13545,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-28.04</v>
@@ -13546,7 +13556,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-29.04</v>
@@ -13557,7 +13567,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">-116.1-8.5</f>
@@ -13570,7 +13580,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">-66.5-6.2</f>
@@ -13583,7 +13593,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.44</v>
@@ -13594,7 +13604,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-5.45</v>
@@ -13605,7 +13615,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-4.44</v>
@@ -13616,7 +13626,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>-23.56</v>
@@ -13627,7 +13637,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.58</v>
@@ -13638,7 +13648,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3.56</v>
@@ -13649,7 +13659,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-3.09</v>
@@ -13660,7 +13670,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-4.53</v>
@@ -13671,7 +13681,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-5.96</v>
@@ -13682,7 +13692,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-12.08</v>
@@ -13693,7 +13703,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-2.35</v>
@@ -13704,7 +13714,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>-45.81</v>
@@ -13715,7 +13725,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>13.3</v>
@@ -13726,7 +13736,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-3.13</v>
@@ -13737,7 +13747,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-12.25</v>
@@ -13748,7 +13758,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-20.67</v>
@@ -13759,7 +13769,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>-6.23</v>
@@ -13770,7 +13780,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>6.88</v>
@@ -13781,7 +13791,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>-19.34</v>
@@ -13792,7 +13802,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3.56</v>
@@ -13803,7 +13813,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-4.81</v>
@@ -13814,7 +13824,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-28.62</v>
@@ -13825,7 +13835,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-318.11</v>
@@ -13836,7 +13846,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-19.4</v>
@@ -13847,7 +13857,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-185.5</v>
@@ -13858,7 +13868,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.11</v>
@@ -13869,7 +13879,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-66.12</v>
@@ -13880,7 +13890,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -13891,7 +13901,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -13902,7 +13912,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -13913,7 +13923,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -13924,7 +13934,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -13935,7 +13945,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -13946,7 +13956,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -13957,7 +13967,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -13968,7 +13978,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -13979,7 +13989,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -13990,7 +14000,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -14011,37 +14021,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P49" activeCellId="0" sqref="P49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P49" activeCellId="1" sqref="A5:B6 P49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -14052,7 +14061,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -14063,7 +14072,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.00010236756767955</v>
@@ -14074,7 +14083,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -14085,7 +14094,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -14096,7 +14105,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.45509998516465E-005</v>
@@ -14107,7 +14116,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -14118,7 +14127,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000205790930230701</v>
@@ -14129,7 +14138,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -14140,7 +14149,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -14151,7 +14160,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5.73325657710516E-006</v>
@@ -14162,7 +14171,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -14173,7 +14182,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -14184,7 +14193,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -14195,7 +14204,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.12804814625548E-007</v>
@@ -14206,7 +14215,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4.73852213987645E-005</v>
@@ -14217,7 +14226,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5.23591359929152E-007</v>
@@ -14228,7 +14237,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1.18773305796203E-005</v>
@@ -14239,7 +14248,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -14250,7 +14259,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -14261,7 +14270,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -14272,7 +14281,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -14283,7 +14292,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.33162186691206E-005</v>
@@ -14294,7 +14303,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1.71070977833693E-006</v>
@@ -14305,7 +14314,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -14316,7 +14325,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -14327,7 +14336,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3.09492406334031E-005</v>
@@ -14338,7 +14347,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -14349,7 +14358,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>4.16241329422479E-005</v>
@@ -14360,7 +14369,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -14371,7 +14380,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>3.9483039729034E-005</v>
@@ -14382,7 +14391,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2.97641935839596E-006</v>
@@ -14393,7 +14402,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>2.13644010416667E-005</v>
@@ -14404,7 +14413,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -14415,7 +14424,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -14426,7 +14435,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -14437,7 +14446,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>7.48711928728461E-005</v>
@@ -14448,7 +14457,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -14459,7 +14468,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000163951968554829</v>
@@ -14470,7 +14479,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>6.62374153580172E-005</v>
@@ -14481,7 +14490,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -14492,7 +14501,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -14503,7 +14512,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -14514,7 +14523,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -14525,7 +14534,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -14536,7 +14545,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -14547,7 +14556,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -14558,7 +14567,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -14569,7 +14578,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -14580,7 +14589,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -14591,7 +14600,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -14612,36 +14621,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A5:B6 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6140</v>
@@ -14652,7 +14660,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14663,7 +14671,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>630</v>
@@ -14674,7 +14682,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14685,7 +14693,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4790</v>
@@ -14696,7 +14704,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14707,7 +14715,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>720</v>
@@ -14718,7 +14726,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14729,7 +14737,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>360</v>
@@ -14740,7 +14748,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5510</v>
@@ -14751,7 +14759,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>720</v>
@@ -14762,7 +14770,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>585</v>
@@ -14773,7 +14781,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14784,7 +14792,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>292.5</v>
@@ -14795,7 +14803,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1170</v>
@@ -14806,7 +14814,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14817,7 +14825,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>295</v>
@@ -14828,7 +14836,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>440</v>
@@ -14839,7 +14847,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14850,7 +14858,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>150</v>
@@ -14861,7 +14869,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>10</v>
@@ -14872,7 +14880,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>150</v>
@@ -14883,7 +14891,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14894,7 +14902,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>6110</v>
@@ -14905,7 +14913,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>570</v>
@@ -14916,7 +14924,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14927,7 +14935,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -14938,7 +14946,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>460</v>
@@ -14949,7 +14957,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -14960,7 +14968,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>5110</v>
@@ -14971,7 +14979,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -14982,7 +14990,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>4360</v>
@@ -14993,7 +15001,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>3890</v>
@@ -15004,7 +15012,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>700</v>
@@ -15015,7 +15023,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>700</v>
@@ -15026,7 +15034,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2230</v>
@@ -15037,7 +15045,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5337.5</v>
@@ -15048,7 +15056,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>312.5</v>
@@ -15059,7 +15067,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>10000</v>
@@ -15070,7 +15078,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>470</v>
@@ -15081,7 +15089,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>700</v>
@@ -15092,7 +15100,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>30</v>
@@ -15103,7 +15111,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>20</v>
@@ -15114,7 +15122,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>290</v>
@@ -15125,7 +15133,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>10</v>
@@ -15136,7 +15144,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>90</v>
@@ -15147,7 +15155,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>140</v>
@@ -15158,7 +15166,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>50</v>
@@ -15169,7 +15177,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>750</v>
